--- a/500all/speech_level/speeches_CHRG-114hhrg20500.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400244</t>
   </si>
   <si>
-    <t>Frank A. LoBiondo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Good morning. The subcommittee will come to order. Before actually getting started, I ask unanimous consent that Members not on the subcommittee be permitted to sit with the subcommittee at today's hearing, offer testimony and ask questions. And without objection, so ordered.    Good morning, and thank you all for being here. Today we will be examining the Federal Aviation Administration's oversight of commercial space transportation. We are at an exciting time in the aviation world. In the past few years, this committee has met regularly to discuss the advent of drones into the National Airspace System, and we are here this morning to talk about the burgeoning industry of commercial space transportation.    Before we begin, I would like to note that yesterday the FAA released its long overdue final rule on small drones, and although we are continuing to review it in detail, I am very pleased that the rule focuses on safely integrating drones in operation today while providing flexibility to permit more advanced types of operations as technology improves. It is a very good step forward, I think.    It has been 7 years since this subcommittee last held a hearing dedicated to this topic. Since that time, the space shuttle has been retired, leaving the United States without a domestic option to transport humans into space, and requiring NASA to pay millions of dollars per seat on Russian spacecraft.    Private industry, with the support of the FAA and NASA, is working to fill this transportation gap, while developing new and innovative methods to transport passengers and cargo safely and efficiently into space. The result has been the domination of these commercial space industries by the United States in virtually all areas. United Launch Alliance, a joint venture of Lockheed Martin and Boeing, provides valuable and highly reliable launch services to the U.S. Government.    Orbital ATK has operated five successful unmanned supply missions to the International Space Station, and we wish them well on their launch 2 weeks from today.    SpaceX and Blue Origin are leading pioneers in the effort to bring down the cost of commercial space launches by reusing launch vehicles. Virgin Galactic, World View Enterprises, and XCOR seek to offer new and exciting experiences and bring space travel and tourism to the general public. These companies and many others contribute to a highly innovative industry advancing U.S. leadership in the field.    I believe we are witnessing a major change in transportation, one that will match the energy and enthusiasm of the early days of barnstorming. These advances require the close cooperation and oversight of FAA's Office of Commercial Space Transportation, or AST. AST's mission is to protect the public, property, and the national security and foreign policy interests of the United States during commercial launch or reentry activities, and to encourage, facilitate, and promote U.S. commercial space transportation.    Commercial space transportation is still an inherently risk-filled endeavor. Our hearing summary outlines two specific accidents, but there have been others. We want to ensure that AST and industry learn from these incidents in order to lay the foundation for a future commercial space transportation safety regulatory framework.    In November 2015, Congress passed the U.S. Commercial Space Launch Competitiveness Act, which has helped position the industry in the United States to further expand and capitalize on our Nation's leadership in this field. We have invited you all here today to get a better sense of the state of the industry following enactment of this law and to learn about opportunities and challenges related to commercial space transportation.    Though this is a newer topic to me and many on the subcommittee, much of the FAA's work in this area is performed in my district at the FAA's premier flagship technical facility in Egg Harbor Township, New Jersey. There, private companies are working with the FAA on a number of projects, including modeling of debris fields, simulating launches and reentries, utilizing the expertise of air traffic controllers, and testing communications systems between spacecraft and air traffic control.    We appreciate all of the work that industry and FAA are doing at the FAA Tech Center in order to continue advancing safe commercial space transportation. As this subcommittee continues to assess the current state of the commercial space transportation industry, it is important that industry engage with members of this panel. I would also encourage all Members to reach out to our distinguished witnesses and others in the commercial space transportation field to learn more about how this transportation sector impacts each and every congressional district.    I am sure this will be an interesting hearing, and I very much look forward to hearing from our distinguished panel of witnesses. Now I would like to yield to Mr. Larsen for any statements he may make.</t>
   </si>
   <si>
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman, and thanks for calling this hearing to take a closer look at the FAA's oversight of commercial space transportation.    This committee has not convened a hearing on commercial space transportation since 2009, and I think we can all agree that there have been many exciting advancements in the industry that have occurred over the last 7 years, so I think it is really ripe for us to take a look.    And as we have seen recently, there is a great deal of promise with the expansion of the commercial space industry. Take, for instance, Blue Origin's success this weekend in landing the New Shepard rocket for the fourth time. This reusable capsule could be used in the future for human spaceflight, or SpaceX, which has been able to land its Falcon 9 rocket on an unmanned ship after successful missions and deliver communication satellites into orbit.    But the promise of commercial space does not end there. Several other companies, including many in my home State, are venturing into unchartered territory when it comes to mining asteroids, developing reusable vehicles, repairing satellites in orbit and other research that we once thought was impossible. In fact, this week, in Seattle, there is a conference on space where many of the leading companies in the industry are showcasing the latest in commercial space, including commercial space transportation.    But with that immense promise comes the need to make sure that we have a robust safety framework in place, and it is not an easy thing to achieve particularly as Congress is cautious to not overregulate this nascent industry. The commercial space industry reminds me a lot of what we are currently confronting with unmanned aircraft systems. Both industries are users of the national airspace, experiencing fast-paced growth, and both in their relative infancy.    As technology rapidly evolves, the regulatory side is continually playing catchup. The small UAS rule, the FAA announced yesterday, is representative of this challenge. The FAA had to balance the interest of the public and of the uses of the national airspace while at the same time being careful not to stifle the industry.    As the commercial space industry continues to evolve, we are going to face similar challenges, so I am very curious to hear what our witnesses' perspectives are on how the Government and industry can work together to build consensus around the regulatory framework that fosters innovation while achieving the highest possible level of safety. I am also interested to hear some perspectives on how we can safely and efficiently integrate commercial space launches into our air traffic control system.    Since 1989, the FAA has licensed or permitted over 280 commercial space launches. Those numbers are forecasted certainly to significantly increase in the coming years. What that means is that FAA's air traffic controllers will need to coordinate existing operations with those of the commercial space industry, and of course, throw into that, UAS. It will not be an easy undertaking.    So to me, it seems the most prudent way to accomplish that is by having all of our air traffic control operations reside with the FAA, the agency which is also responsible for licensing these commercial space launches. And while it does not fall under the jurisdiction of this committee, I would be remiss if I did not mention my interest in commercial space exploration and its impacts on national security.    As a member of the Armed Services Committee, I urge all of us to pay close attention to how the DOD leverages the private sector for national security missions, including launches. And as commercial capabilities and satellite imaging and communications continue to improve, the DOD's use of those services will also grow.    Thus, I consider it vital that the DOD be given a seat at the table when the FAA exercises oversight of commercial space transportation, given that national security interest is at stake as well. So it is a very exciting time for commercial space and commercial space transportation, and I look forward to learning more this morning. And with that, I want to again thank the chairman for holding this hearing, and yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Well, thanks, Mr. Chairman. I will be brief. You know, I am hoping the panel will--I haven't had a chance to read testimony, but will discuss what our role should be after 2023, when the moratorium on FAA regulating safety expires, if we are looking at a robust, civilian basically tourist- or science-based, commercially launched vehicles into space.    And then secondly, you know, I have a concern, and some will remember this, for many, many, many years there was a mandate that the FAA both promote and regulate the aviation industry. For years I tried to change that, and in fact, during one reauthorization, my amendment had been defeated, and people said there is no conflict and there was no problem.    Unfortunately, the ValuJet crash happened. We were in conference, and I get a call saying: How would we put your provisions in the bill? I didn't get everything I wanted, but I got most of it. There is an inherent conflict between promotion and regulation and oversight of safety, and I think that we need to look very carefully at that, and I hope that some of the witnesses can address that.    I mean, it would be more appropriate to say commerce will promote, FAA will regulate, in my opinion, but I would be interested in the opinion of those who are going to testify.    So thank you really for holding this hearing today, Mr. Chairman. I think it is a very important topic.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Nield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Nield. Chairman LoBiondo, Ranking Member Larsen----</t>
   </si>
   <si>
@@ -112,27 +100,18 @@
     <t xml:space="preserve">    Mr. LoBiondo. Thank you very much.    Dr. Dillingham, you are recognized.</t>
   </si>
   <si>
-    <t>Dillingham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Dillingham. Good morning, Mr. Chairman, Ranking Member Larsen, Ranking Member DeFazio, Mr. Duncan, and other members of the subcommittee.    My testimony this morning focuses on two areas. First, the developments in the industry, and second, the related challenges FAA faces in overseeing and promoting the industry.    Regarding the developments in the industry. As Dr. Nield has testified, one of the important developments in the industry in recent years is that FAA has been licensing and permitting increasing numbers and types of launches. The expansion includes moving from exclusively single-use launch vehicles to suborbital reusable vehicles. This expansion includes changes in the launch industry that are bringing significant changes to FAA's oversight, including determining whether and when to regulate the safety of crew and spaceflight participants and issues related to the increased workload for licensing and permitting launches.    Regarding the regulation of safety. In 2014, FAA released a set of recommended practices on human spaceflight occupant safety. Currently, FAA is working with the industry to develop voluntary consensus standards that are needed to implement the agency's recommended practices.    Regarding the second challenge, which focuses on increasing workload for FAA, the challenge includes licensing new and more complex types of vehicles and technologies, such as where companies are developing hybrid launch systems, which have both aircraft and rocket powered components. This challenge also includes licensing more complex launch sites. Launch sites traditionally have been located in coastal areas at Federal launch facilities. FAA is licensing more non-Federal launch sites, and in 2014, FAA licensed an inland launch site that is collocated at a commercial airport in Midland, Texas.    The potential impact of the challenges could have far reaching implications. For example, the expansion could affect the Federal Government's overall liability exposure and indemnification for launches. In general, by increasing the volume of launches and reentries and with the introduction of new types of launch vehicles, the probability of an accident occurring also increases.    A catastrophic accident could result in third-party losses over the maximum probable loss, or MPL, which is now capped at $500 million per launch and could in turn invoke Federal indemnification. In our July 2012 report, we found that FAA's MPL methodology, which was established in the 1980s, should be reviewed and updated. Given the advances that have taken place in catastrophic modeling, we recommended that FAA undertake such a review.    Congress subsequently mandated the FAA to review its MPL methodology and report back to it by April 2016. To date, FAA has not submitted the required report. Another concern related to the expanding commercial launch industry is FAA's budget request and resource needs. In 2015, we found that FAA generally based its budget submission on the number of launches that it was projecting for the following year. But during 6 of the 10 years from fiscal year 2005 to 2014, the actual number of licensed and permitted launches was much lower than projected. For 2016, FAA projected over 30 launches and reentries. To date, there have been 13 launches in fiscal year 2016.    We recommended that FAA provide more detailed information in its budget submission about the various launch related activities and overall workload. In our review of FAA's 2017 budget submission, we found that FAA had provided more detailed information. We plan to continue to work with FAA to assess what other steps they are taking to measure their commercial space launch workload and to provide that critical information to Congress to assist it in its oversight.    Mr. Chairman, Ranking Member Larsen, and members of the committee, that concludes my prepared statement.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Dr. Dillingham.    We will now turn to Mr. Gold. You are recognized.</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gold. Thank you, Chairman LoBiondo, Ranking Member Larsen, distinguished members of the subcommittee, and excellent subcommittee staff for this opportunity to discuss critical issues facing the FAA AST and the commercial space industry.    My name is Mike Gold, and I am the Chairman of the Commercial Space Transportation Advisory Committee, or COMSTAC, a Federal advisory committee comprised of executives from a wide variety of aerospace corporations.    Before I delve into the challenges and opportunities that the commercial space transportation industry faces, I would like to take a moment, like Dr. Nield, to acknowledge the passing of his predecessor, Patti Grace Smith. Ms. Smith initially appointed me to the COMSTAC and served as the Associate Administrator of Commercial Space Transportation for an unprecedented 11 years. Ms. Smith was a beloved and well respected leader in the commercial space world who fostered an environment of growth, innovation, and cooperation between industry and Government that we are still enjoying today.    It is actually appropriate that I begin my testimony with a reference to Ms. Smith because I first met her at a meeting during which we were attempting to address the issue of private sector operations in low Earth orbit, or LEO. At that meeting, I was told the AST has authority for commercial space transportation launches to orbit as well as reentries from orbit but that no Government agency has authority over private sector operations in or beyond LEO.    Sixteen years later, we have still failed to answer this basic question, and I come before you today begging for a resolution. This problem stems from article VI of the Outer Space Treaty, ratified by the U.S. in 1967, which requires countries to provide authorization and continuing supervision of their private sector space activities. The U.S. signed the Outer Space Treaty, creating an obligation for the continuing supervision of nongovernmental entities, but we failed to craft a mechanism for such supervision to take place.    This created a potential regulatory quagmire that domestic companies are already suffering from. Fortunately, a simple effective solution is available. Congress should, as soon as possible, direct the AST to update its regulations to support a mission licensing process. The mission licensing approach, or some iteration thereof, could mirror the AST's existing payload review procedures and would be limited to requiring only basic information, such as if the payload or planned activity will conform to international treaty obligations or interfere with national security interests.    The requirement for continuing supervision would be explicitly met by inserting a proviso into every mission license for the company to inform the AST if they experience a material change to their activity. This concept would fully address the continuing supervision requirement, via a benign registration-based regime. Even if there were no Outer Space Treaty, establishing a simple, efficient means of registering domestic commercial space activities in and beyond LEO would make sense to prevent potential conjunctions and other forms of harmful interference between domestic and foreign outer space activities. This issue must be resolved, and it must be resolved with alacrity.    In addition to chairing the COMSTAC, I am also a vice president of Washington operations for Space Systems Loral, the world's most prolific commercial satellite manufacturer. As you have seen in the videos, which have been playing in the background, we are about to enter a new era of robotic satellite servicing, wherein satellites are no longer built on Earth and then disposed of, but instead are refueled, refurbished, and enhanced while still in orbit.    This new world of satellite 2.0 will create a revolution in capabilities, impacting every aspect of our daily lives in ways that we cannot now even begin to imagine. However, what I can predict with utter certainty is that the companies and countries that are leaders in satellite servicing and orbital assembly will enjoy an overwhelming competitive edge over nations that have fallen behind.    The Defense Advanced Research Projects Agency, or DARPA, and NASA each have their own pilot programs to demonstrate satellite servicing. But in order to transition such capabilities to the private sector and to make the U.S. a global leader, more support, programs, and funding are needed, and the Government must not immediately throw up a regulatory roadblock by failing to address article VI's continuing supervision requirement.    Moreover, I would be remiss if I didn't use this opportunity to also raise the COMSTAC's concern over funding shortfalls at the AST. The workload at the AST continues to increase rapidly, far exceeding the relatively meager growth in the AST's budget. Without proper funding, I fear the AST will soon simply run out of bodies to handle their ever increasing workload, resulting in licensing and other administrative delays that could substantially hamper commercial space transportation development and encourage companies to move their operations overseas.    At nearly every COMSTAC meeting, the committee has recommended support for increased AST funding. I cannot think of another example where industry has uniformly and consistently called for increasing funding for a regulatory agency, and this situation is both a tribute to Dr. Nield's leadership as well as a warning sign regarding the dire need for additional resources.    Again, I appreciate this opportunity to testify. I look forward to answering your questions, and I urge the subcommittee to take expeditious action to ensure that in the future, commercial space companies can focus more on launches and less on lawyers.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Mr. Gold.    Mr. Lopez-Alegria, you are recognized.</t>
   </si>
   <si>
-    <t>Lopez-Alegria</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lopez-Alegria. Thank you, Chairman LoBiondo, Ranking Member Larsen, and Ranking Member DeFazio, and members of the subcommittee. Thank you for organizing the hearing and allowing me to offer some thoughts as the Vice Chair of the COMSTAC. Compared to the esteemed Chair of the COMSTAC----</t>
   </si>
   <si>
@@ -154,9 +133,6 @@
     <t xml:space="preserve">    Mr. LoBiondo. All right. Thank you very much.    Mr. MacCallum, you are recognized.</t>
   </si>
   <si>
-    <t>MacCallum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacCallum. Thank you, Chairman LoBiondo, Ranking Member Larsen, Ranking Member DeFazio, members of the subcommittee.    FAA's oversight, regulation, and promotion of commercial space transportation has fostered a strong and growing American industry. The human spaceflight regulations that govern large segments of our industry are currently temporary and I believe should be made permanent.    This impermanence and subsequent uncertainty is one of the largest factors influencing the future success of our industry. Additionally, the industry's growth will require the FAA to seamlessly incorporate routine commercial space operations into the National Airspace System, without which we run the risk of a conflict between airports, airlines, and the commercial space industry.    I will explain three actions that Congress can take to continue to foster the commercial space industry and protect the public's interest.    First, some background. I am a founder and the CTO of World View Enterprises. Our Arizona-based company is the operator of Spaceport Tucson and is developing and operating balloon-based vehicles working at the edge of space. Like an ice cube floating on water, our vehicles float on top of the Earth's atmosphere. Our vehicles have made numerous flights to high altitudes for research, and we are the world's record holders for human flight under a balloon, flying to 136,000 feet.    Here is Virgin Galactic's SpaceShipOne aircraft plus rocket system designed to take spaceflight participants to the edge of space in a suborbital rocket ride. Blue Origin's New Shepard rocket uses a vertical take-off approach to provide participants with a spaceflight experience. The World View Voyager capsule, will ascend to the edge of space under a large balloon shown here. All three of these companies' human spaceflight operations are regulated by the FAA Office of Commercial Space Transportation with whom we have worked for many years. I am happy to say that the FAA Associate Administrator responsible for this office, Dr. Nield, runs a truly great organization.    Thank you for the opportunity to convey an industry's perspective on FAA oversight of commercial spaceflight. Spaceflight operations involving humans, called spaceflight participants, are regulated under a regime based on the participants being informed of the risks and formally consenting to them. The regulations provide extensive protection of the uninvolved public, protection of property, and safe integration into the National Airspace System.    This informed consent regime ingeniously fosters innovation, technology development, and investment by creating a market for tourists, researchers, and astronauts to fly in space. This, like other tourism or sporting activities, such as skydiving, paragliding, and scuba diving, that involve informed consent, waivers, and releases. Members of the public have the right and freedom to voluntarily engage in activities where they believe the benefits outweigh the informed risks.    However, unlike skydiving, the regime for human spaceflight operation is temporary, called the learning period. It is subject to extension by Congress, and under certain conditions, all or part of this informed consent regime can be ended by the     The idea behind the learning period was that a time will come when the entire human commercial spaceflight industry should be transitioned to a regime in which the safety of a spaceflight participant is regulated. The informed consent regime is creating an industry and should not be subject to termination. At the same time, there is a desire and longstanding vision, as we have heard, to see the commercial space industry evolve into routine operations with the success and safety of the commercial airline industry.    I believe that the best solution is for two regulatory regimes to permanently exist in parallel. The existing informed consent regulatory regime or license and a new extended license, a regulatory regime that includes spaceflight participant safety. An extended license would be required for operations that constitute common carriage under Federal aviation regulations.    For example, Virgin Galactic could offer regular 1-hour service from New York to Sydney under an extended license. For services whose destination is space itself, common carriage does not apply, and the current license protecting the public property and national airspace is appropriate. Voluntarily garnering an extended license for such activities would confer, I believe, a great competitive advantage to operators.    It is in the Government's interest to maintain our country's leadership in aerospace by creating a stable yet flexible regulatory regime. I encourage Congress to take the lead in this area with three actions.    First, make the informed consent license permanent; second, direct the FAA to develop an extended license to include participant safety; and third, make it a high priority for the FAA to seamlessly incorporate routine commercial space operations into the National Airspace System.    Thank you very much. I look forward to your questions.</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>400440</t>
   </si>
   <si>
-    <t>Don Young</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Young. Thank you, Mr. Chairman, and you may wonder why I am here, but we have a lot of space activity in Alaska, more primary launches. But you know, I was just sitting here thinking, you know, in 1492, Columbus sailed the ocean blue without any regulations, and I am a little concerned in this new vision that you have, and thank you, all of you, for this, that what we have watched over the years is regulations stifle the imagination, the entrepreneurship, and this is a fledgling industry. It really is something that is down the road. I will never see the final of it, I know that, but it is something I believe this Nation is going to be faced with, and it will be exciting. It will be something that we can all look upon with great pride.    What I don't want is the baby to be suffocated with too many blankets. And all due respect to you, Dr. Nield, the FAA doesn't have the greatest reputation in the world right now, and we are working on a renewal of that bill, as you know. And I just wondered, Dr. Nield, do you think that you should be the agency or should we have another group of people that would write regulations with the cooperation of the industry itself?    I am afraid you are going the get some college graduate, or some noncollege graduate, involved writing regulation not knowing the effect upon industry, which has happened in a lot of other agencies. Do you think you are--you are the only one in the street now. Do you think you are the appropriate one, or should there be another agency to work with the industry to make sure it is safe?</t>
   </si>
   <si>
@@ -319,9 +292,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman. Where are we in relation to other countries, Dr. Nield? Are any other countries further along in this area than we are?</t>
   </si>
   <si>
@@ -349,9 +319,6 @@
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman LoBiondo and Ranking Member Larsen. This is for all the witnesses. Congress previously imposed a moratorium to prevent the FAA from issuing more robust regulations on the operational safety of commercial spaceflight until 2023. And the rationale was, essentially, to avoid overregulating an emerging industry in its infancy.    Do you think that this moratorium needs to be revisited? And should it end earlier or be extended? Based on what is actually happening in the industry today, what do you all think about updating the operational safely rules currently in place?</t>
   </si>
   <si>
@@ -373,9 +340,6 @@
     <t>412454</t>
   </si>
   <si>
-    <t>Richard L. Hanna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hanna. Thank you, Chairman.    Dr. Nield, you have heard the testimony, I know, and it is an interesting dynamic. A moratorium seems to be the antithesis of--and yet at the same time agree with Mr. MacCallum that if you need a moratorium, then you are not capable of doing the job. What would you wait for? And I am thinking of the Next Generation Aviation, which you are familiar with, which is 20 years behind now.    Mr. MacCallum, this industry, there are many different groups in it. It is a great opportunity, depending on who you are and what your level of risk you are able to take. But, I mean, is it possible to do everything everybody wants to do here successfully without having a great deal of latitude in the process? Because there are multiple ways of doing this and ideas. And we have seen that over the last 5 or 10 years.</t>
   </si>
   <si>
@@ -427,9 +391,6 @@
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. And thank the witnesses for being here, especially Mr. Gold. I think you have some familiarity with southern Nevada from your time at Bigelow. A lot of people who come to my district get transported to another dimension, but they don't usually think about it as space travel. So appreciate your knowledge.    I would like to address my question to you, Mr. Gold, and to Dr. Nield. You know, we are just a couple of weeks away from the reauthorization again of the FAA bill. The Senate has passed a version. And we have a version over here on the House side that calls for a privatization of air traffic control system. Part of the problem with that is that it puts the decisionmaking in the hands of a commission or a committee that is dominated by just primarily one special interest and leaves out a lot of the players, including commercial space industry.    So I would ask you, Mr. Gold, if you would be satisfied with a system that where they determine rates and access and every bit of use of airspace where you are not at the table? And I would ask Dr. Nield if he would comment on kind of the relationship between the Office of Commercial Space and air traffic. And I know it is a substantial one, and what kind of challenges would be posed if we moved to this new system that is in the House bill?</t>
   </si>
   <si>
@@ -461,9 +422,6 @@
   </si>
   <si>
     <t>412416</t>
-  </si>
-  <si>
-    <t>Rob Woodall</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Woodall. Thank you, Mr. Chairman.    I have heard a common theme of a new frontier and emerging industry, young industry. Mr. Lopez-Alegria, help me understand what the tipping point is when it does move to the common carriage that Mr. MacCallum mentioned. When do we stop having the conversation about an immature industry and start having the conversation about safety and a mature industry that is ready for commercial travel?</t>
@@ -916,11 +874,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -940,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -968,11 +922,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -992,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1020,11 +970,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1044,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1072,11 +1018,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1096,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1124,11 +1066,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1148,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1176,11 +1114,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1200,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1228,11 +1162,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1252,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1280,11 +1210,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1304,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1332,11 +1258,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1356,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1384,11 +1306,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1408,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1436,11 +1354,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1460,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1488,11 +1402,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1512,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1540,11 +1450,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1564,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1592,11 +1498,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1616,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1642,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1668,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1694,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1720,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1746,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1772,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1798,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1824,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1850,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1876,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1902,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1928,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1954,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1980,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2006,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2032,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2058,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2084,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2112,11 +1978,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2136,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2162,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2188,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2214,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2240,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2266,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2292,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2318,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2344,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>70</v>
-      </c>
-      <c r="H57" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2372,11 +2218,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2396,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2422,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2448,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2474,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2500,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2526,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2552,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2578,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2604,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2630,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2656,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2682,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2708,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2734,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2760,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2786,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2812,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2838,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2866,11 +2674,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2890,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2916,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2942,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2968,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2994,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3020,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3046,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3074,11 +2866,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3098,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
-      </c>
-      <c r="G86" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3124,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3150,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3176,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3202,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
-      </c>
-      <c r="G90" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3230,11 +3010,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3254,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3280,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3306,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
-      </c>
-      <c r="G94" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3332,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3358,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
-      </c>
-      <c r="G96" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3384,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3410,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
-      </c>
-      <c r="G98" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3436,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3462,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
-      </c>
-      <c r="G100" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3488,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3514,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
         <v>118</v>
-      </c>
-      <c r="G102" t="s">
-        <v>119</v>
-      </c>
-      <c r="H102" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3540,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3566,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3592,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3618,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
-      </c>
-      <c r="G106" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3646,11 +3394,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3670,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
-      </c>
-      <c r="G108" t="s">
-        <v>137</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3696,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3722,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>136</v>
-      </c>
-      <c r="G110" t="s">
-        <v>137</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3748,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3774,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
-      </c>
-      <c r="G112" t="s">
-        <v>137</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3800,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3826,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
-      </c>
-      <c r="G114" t="s">
-        <v>137</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3852,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3878,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>136</v>
-      </c>
-      <c r="G116" t="s">
-        <v>137</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3906,11 +3634,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3930,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3956,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3982,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4008,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4034,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4060,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4086,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4114,11 +3826,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4138,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4166,11 +3874,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4190,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4218,11 +3922,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4242,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4270,11 +3970,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4294,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4322,11 +4018,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4346,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4374,11 +4066,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20500.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400244</t>
   </si>
   <si>
+    <t>LoBiondo</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Good morning. The subcommittee will come to order. Before actually getting started, I ask unanimous consent that Members not on the subcommittee be permitted to sit with the subcommittee at today's hearing, offer testimony and ask questions. And without objection, so ordered.    Good morning, and thank you all for being here. Today we will be examining the Federal Aviation Administration's oversight of commercial space transportation. We are at an exciting time in the aviation world. In the past few years, this committee has met regularly to discuss the advent of drones into the National Airspace System, and we are here this morning to talk about the burgeoning industry of commercial space transportation.    Before we begin, I would like to note that yesterday the FAA released its long overdue final rule on small drones, and although we are continuing to review it in detail, I am very pleased that the rule focuses on safely integrating drones in operation today while providing flexibility to permit more advanced types of operations as technology improves. It is a very good step forward, I think.    It has been 7 years since this subcommittee last held a hearing dedicated to this topic. Since that time, the space shuttle has been retired, leaving the United States without a domestic option to transport humans into space, and requiring NASA to pay millions of dollars per seat on Russian spacecraft.    Private industry, with the support of the FAA and NASA, is working to fill this transportation gap, while developing new and innovative methods to transport passengers and cargo safely and efficiently into space. The result has been the domination of these commercial space industries by the United States in virtually all areas. United Launch Alliance, a joint venture of Lockheed Martin and Boeing, provides valuable and highly reliable launch services to the U.S. Government.    Orbital ATK has operated five successful unmanned supply missions to the International Space Station, and we wish them well on their launch 2 weeks from today.    SpaceX and Blue Origin are leading pioneers in the effort to bring down the cost of commercial space launches by reusing launch vehicles. Virgin Galactic, World View Enterprises, and XCOR seek to offer new and exciting experiences and bring space travel and tourism to the general public. These companies and many others contribute to a highly innovative industry advancing U.S. leadership in the field.    I believe we are witnessing a major change in transportation, one that will match the energy and enthusiasm of the early days of barnstorming. These advances require the close cooperation and oversight of FAA's Office of Commercial Space Transportation, or AST. AST's mission is to protect the public, property, and the national security and foreign policy interests of the United States during commercial launch or reentry activities, and to encourage, facilitate, and promote U.S. commercial space transportation.    Commercial space transportation is still an inherently risk-filled endeavor. Our hearing summary outlines two specific accidents, but there have been others. We want to ensure that AST and industry learn from these incidents in order to lay the foundation for a future commercial space transportation safety regulatory framework.    In November 2015, Congress passed the U.S. Commercial Space Launch Competitiveness Act, which has helped position the industry in the United States to further expand and capitalize on our Nation's leadership in this field. We have invited you all here today to get a better sense of the state of the industry following enactment of this law and to learn about opportunities and challenges related to commercial space transportation.    Though this is a newer topic to me and many on the subcommittee, much of the FAA's work in this area is performed in my district at the FAA's premier flagship technical facility in Egg Harbor Township, New Jersey. There, private companies are working with the FAA on a number of projects, including modeling of debris fields, simulating launches and reentries, utilizing the expertise of air traffic controllers, and testing communications systems between spacecraft and air traffic control.    We appreciate all of the work that industry and FAA are doing at the FAA Tech Center in order to continue advancing safe commercial space transportation. As this subcommittee continues to assess the current state of the commercial space transportation industry, it is important that industry engage with members of this panel. I would also encourage all Members to reach out to our distinguished witnesses and others in the commercial space transportation field to learn more about how this transportation sector impacts each and every congressional district.    I am sure this will be an interesting hearing, and I very much look forward to hearing from our distinguished panel of witnesses. Now I would like to yield to Mr. Larsen for any statements he may make.</t>
   </si>
   <si>
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman, and thanks for calling this hearing to take a closer look at the FAA's oversight of commercial space transportation.    This committee has not convened a hearing on commercial space transportation since 2009, and I think we can all agree that there have been many exciting advancements in the industry that have occurred over the last 7 years, so I think it is really ripe for us to take a look.    And as we have seen recently, there is a great deal of promise with the expansion of the commercial space industry. Take, for instance, Blue Origin's success this weekend in landing the New Shepard rocket for the fourth time. This reusable capsule could be used in the future for human spaceflight, or SpaceX, which has been able to land its Falcon 9 rocket on an unmanned ship after successful missions and deliver communication satellites into orbit.    But the promise of commercial space does not end there. Several other companies, including many in my home State, are venturing into unchartered territory when it comes to mining asteroids, developing reusable vehicles, repairing satellites in orbit and other research that we once thought was impossible. In fact, this week, in Seattle, there is a conference on space where many of the leading companies in the industry are showcasing the latest in commercial space, including commercial space transportation.    But with that immense promise comes the need to make sure that we have a robust safety framework in place, and it is not an easy thing to achieve particularly as Congress is cautious to not overregulate this nascent industry. The commercial space industry reminds me a lot of what we are currently confronting with unmanned aircraft systems. Both industries are users of the national airspace, experiencing fast-paced growth, and both in their relative infancy.    As technology rapidly evolves, the regulatory side is continually playing catchup. The small UAS rule, the FAA announced yesterday, is representative of this challenge. The FAA had to balance the interest of the public and of the uses of the national airspace while at the same time being careful not to stifle the industry.    As the commercial space industry continues to evolve, we are going to face similar challenges, so I am very curious to hear what our witnesses' perspectives are on how the Government and industry can work together to build consensus around the regulatory framework that fosters innovation while achieving the highest possible level of safety. I am also interested to hear some perspectives on how we can safely and efficiently integrate commercial space launches into our air traffic control system.    Since 1989, the FAA has licensed or permitted over 280 commercial space launches. Those numbers are forecasted certainly to significantly increase in the coming years. What that means is that FAA's air traffic controllers will need to coordinate existing operations with those of the commercial space industry, and of course, throw into that, UAS. It will not be an easy undertaking.    So to me, it seems the most prudent way to accomplish that is by having all of our air traffic control operations reside with the FAA, the agency which is also responsible for licensing these commercial space launches. And while it does not fall under the jurisdiction of this committee, I would be remiss if I did not mention my interest in commercial space exploration and its impacts on national security.    As a member of the Armed Services Committee, I urge all of us to pay close attention to how the DOD leverages the private sector for national security missions, including launches. And as commercial capabilities and satellite imaging and communications continue to improve, the DOD's use of those services will also grow.    Thus, I consider it vital that the DOD be given a seat at the table when the FAA exercises oversight of commercial space transportation, given that national security interest is at stake as well. So it is a very exciting time for commercial space and commercial space transportation, and I look forward to learning more this morning. And with that, I want to again thank the chairman for holding this hearing, and yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400100</t>
   </si>
   <si>
+    <t>DeFazio</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeFazio. Well, thanks, Mr. Chairman. I will be brief. You know, I am hoping the panel will--I haven't had a chance to read testimony, but will discuss what our role should be after 2023, when the moratorium on FAA regulating safety expires, if we are looking at a robust, civilian basically tourist- or science-based, commercially launched vehicles into space.    And then secondly, you know, I have a concern, and some will remember this, for many, many, many years there was a mandate that the FAA both promote and regulate the aviation industry. For years I tried to change that, and in fact, during one reauthorization, my amendment had been defeated, and people said there is no conflict and there was no problem.    Unfortunately, the ValuJet crash happened. We were in conference, and I get a call saying: How would we put your provisions in the bill? I didn't get everything I wanted, but I got most of it. There is an inherent conflict between promotion and regulation and oversight of safety, and I think that we need to look very carefully at that, and I hope that some of the witnesses can address that.    I mean, it would be more appropriate to say commerce will promote, FAA will regulate, in my opinion, but I would be interested in the opinion of those who are going to testify.    So thank you really for holding this hearing today, Mr. Chairman. I think it is a very important topic.</t>
   </si>
   <si>
@@ -76,6 +97,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Nield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Nield. Chairman LoBiondo, Ranking Member Larsen----</t>
   </si>
   <si>
@@ -100,18 +124,27 @@
     <t xml:space="preserve">    Mr. LoBiondo. Thank you very much.    Dr. Dillingham, you are recognized.</t>
   </si>
   <si>
+    <t>Dillingham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Dillingham. Good morning, Mr. Chairman, Ranking Member Larsen, Ranking Member DeFazio, Mr. Duncan, and other members of the subcommittee.    My testimony this morning focuses on two areas. First, the developments in the industry, and second, the related challenges FAA faces in overseeing and promoting the industry.    Regarding the developments in the industry. As Dr. Nield has testified, one of the important developments in the industry in recent years is that FAA has been licensing and permitting increasing numbers and types of launches. The expansion includes moving from exclusively single-use launch vehicles to suborbital reusable vehicles. This expansion includes changes in the launch industry that are bringing significant changes to FAA's oversight, including determining whether and when to regulate the safety of crew and spaceflight participants and issues related to the increased workload for licensing and permitting launches.    Regarding the regulation of safety. In 2014, FAA released a set of recommended practices on human spaceflight occupant safety. Currently, FAA is working with the industry to develop voluntary consensus standards that are needed to implement the agency's recommended practices.    Regarding the second challenge, which focuses on increasing workload for FAA, the challenge includes licensing new and more complex types of vehicles and technologies, such as where companies are developing hybrid launch systems, which have both aircraft and rocket powered components. This challenge also includes licensing more complex launch sites. Launch sites traditionally have been located in coastal areas at Federal launch facilities. FAA is licensing more non-Federal launch sites, and in 2014, FAA licensed an inland launch site that is collocated at a commercial airport in Midland, Texas.    The potential impact of the challenges could have far reaching implications. For example, the expansion could affect the Federal Government's overall liability exposure and indemnification for launches. In general, by increasing the volume of launches and reentries and with the introduction of new types of launch vehicles, the probability of an accident occurring also increases.    A catastrophic accident could result in third-party losses over the maximum probable loss, or MPL, which is now capped at $500 million per launch and could in turn invoke Federal indemnification. In our July 2012 report, we found that FAA's MPL methodology, which was established in the 1980s, should be reviewed and updated. Given the advances that have taken place in catastrophic modeling, we recommended that FAA undertake such a review.    Congress subsequently mandated the FAA to review its MPL methodology and report back to it by April 2016. To date, FAA has not submitted the required report. Another concern related to the expanding commercial launch industry is FAA's budget request and resource needs. In 2015, we found that FAA generally based its budget submission on the number of launches that it was projecting for the following year. But during 6 of the 10 years from fiscal year 2005 to 2014, the actual number of licensed and permitted launches was much lower than projected. For 2016, FAA projected over 30 launches and reentries. To date, there have been 13 launches in fiscal year 2016.    We recommended that FAA provide more detailed information in its budget submission about the various launch related activities and overall workload. In our review of FAA's 2017 budget submission, we found that FAA had provided more detailed information. We plan to continue to work with FAA to assess what other steps they are taking to measure their commercial space launch workload and to provide that critical information to Congress to assist it in its oversight.    Mr. Chairman, Ranking Member Larsen, and members of the committee, that concludes my prepared statement.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Dr. Dillingham.    We will now turn to Mr. Gold. You are recognized.</t>
   </si>
   <si>
+    <t>Gold</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gold. Thank you, Chairman LoBiondo, Ranking Member Larsen, distinguished members of the subcommittee, and excellent subcommittee staff for this opportunity to discuss critical issues facing the FAA AST and the commercial space industry.    My name is Mike Gold, and I am the Chairman of the Commercial Space Transportation Advisory Committee, or COMSTAC, a Federal advisory committee comprised of executives from a wide variety of aerospace corporations.    Before I delve into the challenges and opportunities that the commercial space transportation industry faces, I would like to take a moment, like Dr. Nield, to acknowledge the passing of his predecessor, Patti Grace Smith. Ms. Smith initially appointed me to the COMSTAC and served as the Associate Administrator of Commercial Space Transportation for an unprecedented 11 years. Ms. Smith was a beloved and well respected leader in the commercial space world who fostered an environment of growth, innovation, and cooperation between industry and Government that we are still enjoying today.    It is actually appropriate that I begin my testimony with a reference to Ms. Smith because I first met her at a meeting during which we were attempting to address the issue of private sector operations in low Earth orbit, or LEO. At that meeting, I was told the AST has authority for commercial space transportation launches to orbit as well as reentries from orbit but that no Government agency has authority over private sector operations in or beyond LEO.    Sixteen years later, we have still failed to answer this basic question, and I come before you today begging for a resolution. This problem stems from article VI of the Outer Space Treaty, ratified by the U.S. in 1967, which requires countries to provide authorization and continuing supervision of their private sector space activities. The U.S. signed the Outer Space Treaty, creating an obligation for the continuing supervision of nongovernmental entities, but we failed to craft a mechanism for such supervision to take place.    This created a potential regulatory quagmire that domestic companies are already suffering from. Fortunately, a simple effective solution is available. Congress should, as soon as possible, direct the AST to update its regulations to support a mission licensing process. The mission licensing approach, or some iteration thereof, could mirror the AST's existing payload review procedures and would be limited to requiring only basic information, such as if the payload or planned activity will conform to international treaty obligations or interfere with national security interests.    The requirement for continuing supervision would be explicitly met by inserting a proviso into every mission license for the company to inform the AST if they experience a material change to their activity. This concept would fully address the continuing supervision requirement, via a benign registration-based regime. Even if there were no Outer Space Treaty, establishing a simple, efficient means of registering domestic commercial space activities in and beyond LEO would make sense to prevent potential conjunctions and other forms of harmful interference between domestic and foreign outer space activities. This issue must be resolved, and it must be resolved with alacrity.    In addition to chairing the COMSTAC, I am also a vice president of Washington operations for Space Systems Loral, the world's most prolific commercial satellite manufacturer. As you have seen in the videos, which have been playing in the background, we are about to enter a new era of robotic satellite servicing, wherein satellites are no longer built on Earth and then disposed of, but instead are refueled, refurbished, and enhanced while still in orbit.    This new world of satellite 2.0 will create a revolution in capabilities, impacting every aspect of our daily lives in ways that we cannot now even begin to imagine. However, what I can predict with utter certainty is that the companies and countries that are leaders in satellite servicing and orbital assembly will enjoy an overwhelming competitive edge over nations that have fallen behind.    The Defense Advanced Research Projects Agency, or DARPA, and NASA each have their own pilot programs to demonstrate satellite servicing. But in order to transition such capabilities to the private sector and to make the U.S. a global leader, more support, programs, and funding are needed, and the Government must not immediately throw up a regulatory roadblock by failing to address article VI's continuing supervision requirement.    Moreover, I would be remiss if I didn't use this opportunity to also raise the COMSTAC's concern over funding shortfalls at the AST. The workload at the AST continues to increase rapidly, far exceeding the relatively meager growth in the AST's budget. Without proper funding, I fear the AST will soon simply run out of bodies to handle their ever increasing workload, resulting in licensing and other administrative delays that could substantially hamper commercial space transportation development and encourage companies to move their operations overseas.    At nearly every COMSTAC meeting, the committee has recommended support for increased AST funding. I cannot think of another example where industry has uniformly and consistently called for increasing funding for a regulatory agency, and this situation is both a tribute to Dr. Nield's leadership as well as a warning sign regarding the dire need for additional resources.    Again, I appreciate this opportunity to testify. I look forward to answering your questions, and I urge the subcommittee to take expeditious action to ensure that in the future, commercial space companies can focus more on launches and less on lawyers.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Mr. Gold.    Mr. Lopez-Alegria, you are recognized.</t>
   </si>
   <si>
+    <t>Lopez-Alegria</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lopez-Alegria. Thank you, Chairman LoBiondo, Ranking Member Larsen, and Ranking Member DeFazio, and members of the subcommittee. Thank you for organizing the hearing and allowing me to offer some thoughts as the Vice Chair of the COMSTAC. Compared to the esteemed Chair of the COMSTAC----</t>
   </si>
   <si>
@@ -133,6 +166,9 @@
     <t xml:space="preserve">    Mr. LoBiondo. All right. Thank you very much.    Mr. MacCallum, you are recognized.</t>
   </si>
   <si>
+    <t>MacCallum</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacCallum. Thank you, Chairman LoBiondo, Ranking Member Larsen, Ranking Member DeFazio, members of the subcommittee.    FAA's oversight, regulation, and promotion of commercial space transportation has fostered a strong and growing American industry. The human spaceflight regulations that govern large segments of our industry are currently temporary and I believe should be made permanent.    This impermanence and subsequent uncertainty is one of the largest factors influencing the future success of our industry. Additionally, the industry's growth will require the FAA to seamlessly incorporate routine commercial space operations into the National Airspace System, without which we run the risk of a conflict between airports, airlines, and the commercial space industry.    I will explain three actions that Congress can take to continue to foster the commercial space industry and protect the public's interest.    First, some background. I am a founder and the CTO of World View Enterprises. Our Arizona-based company is the operator of Spaceport Tucson and is developing and operating balloon-based vehicles working at the edge of space. Like an ice cube floating on water, our vehicles float on top of the Earth's atmosphere. Our vehicles have made numerous flights to high altitudes for research, and we are the world's record holders for human flight under a balloon, flying to 136,000 feet.    Here is Virgin Galactic's SpaceShipOne aircraft plus rocket system designed to take spaceflight participants to the edge of space in a suborbital rocket ride. Blue Origin's New Shepard rocket uses a vertical take-off approach to provide participants with a spaceflight experience. The World View Voyager capsule, will ascend to the edge of space under a large balloon shown here. All three of these companies' human spaceflight operations are regulated by the FAA Office of Commercial Space Transportation with whom we have worked for many years. I am happy to say that the FAA Associate Administrator responsible for this office, Dr. Nield, runs a truly great organization.    Thank you for the opportunity to convey an industry's perspective on FAA oversight of commercial spaceflight. Spaceflight operations involving humans, called spaceflight participants, are regulated under a regime based on the participants being informed of the risks and formally consenting to them. The regulations provide extensive protection of the uninvolved public, protection of property, and safe integration into the National Airspace System.    This informed consent regime ingeniously fosters innovation, technology development, and investment by creating a market for tourists, researchers, and astronauts to fly in space. This, like other tourism or sporting activities, such as skydiving, paragliding, and scuba diving, that involve informed consent, waivers, and releases. Members of the public have the right and freedom to voluntarily engage in activities where they believe the benefits outweigh the informed risks.    However, unlike skydiving, the regime for human spaceflight operation is temporary, called the learning period. It is subject to extension by Congress, and under certain conditions, all or part of this informed consent regime can be ended by the     The idea behind the learning period was that a time will come when the entire human commercial spaceflight industry should be transitioned to a regime in which the safety of a spaceflight participant is regulated. The informed consent regime is creating an industry and should not be subject to termination. At the same time, there is a desire and longstanding vision, as we have heard, to see the commercial space industry evolve into routine operations with the success and safety of the commercial airline industry.    I believe that the best solution is for two regulatory regimes to permanently exist in parallel. The existing informed consent regulatory regime or license and a new extended license, a regulatory regime that includes spaceflight participant safety. An extended license would be required for operations that constitute common carriage under Federal aviation regulations.    For example, Virgin Galactic could offer regular 1-hour service from New York to Sydney under an extended license. For services whose destination is space itself, common carriage does not apply, and the current license protecting the public property and national airspace is appropriate. Voluntarily garnering an extended license for such activities would confer, I believe, a great competitive advantage to operators.    It is in the Government's interest to maintain our country's leadership in aerospace by creating a stable yet flexible regulatory regime. I encourage Congress to take the lead in this area with three actions.    First, make the informed consent license permanent; second, direct the FAA to develop an extended license to include participant safety; and third, make it a high priority for the FAA to seamlessly incorporate routine commercial space operations into the National Airspace System.    Thank you very much. I look forward to your questions.</t>
   </si>
   <si>
@@ -202,6 +238,12 @@
     <t>400440</t>
   </si>
   <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Young. Thank you, Mr. Chairman, and you may wonder why I am here, but we have a lot of space activity in Alaska, more primary launches. But you know, I was just sitting here thinking, you know, in 1492, Columbus sailed the ocean blue without any regulations, and I am a little concerned in this new vision that you have, and thank you, all of you, for this, that what we have watched over the years is regulations stifle the imagination, the entrepreneurship, and this is a fledgling industry. It really is something that is down the road. I will never see the final of it, I know that, but it is something I believe this Nation is going to be faced with, and it will be exciting. It will be something that we can all look upon with great pride.    What I don't want is the baby to be suffocated with too many blankets. And all due respect to you, Dr. Nield, the FAA doesn't have the greatest reputation in the world right now, and we are working on a renewal of that bill, as you know. And I just wondered, Dr. Nield, do you think that you should be the agency or should we have another group of people that would write regulations with the cooperation of the industry itself?    I am afraid you are going the get some college graduate, or some noncollege graduate, involved writing regulation not knowing the effect upon industry, which has happened in a lot of other agencies. Do you think you are--you are the only one in the street now. Do you think you are the appropriate one, or should there be another agency to work with the industry to make sure it is safe?</t>
   </si>
   <si>
@@ -292,6 +334,12 @@
     <t>400116</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman. Where are we in relation to other countries, Dr. Nield? Are any other countries further along in this area than we are?</t>
   </si>
   <si>
@@ -319,6 +367,12 @@
     <t>412258</t>
   </si>
   <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman LoBiondo and Ranking Member Larsen. This is for all the witnesses. Congress previously imposed a moratorium to prevent the FAA from issuing more robust regulations on the operational safety of commercial spaceflight until 2023. And the rationale was, essentially, to avoid overregulating an emerging industry in its infancy.    Do you think that this moratorium needs to be revisited? And should it end earlier or be extended? Based on what is actually happening in the industry today, what do you all think about updating the operational safely rules currently in place?</t>
   </si>
   <si>
@@ -340,6 +394,12 @@
     <t>412454</t>
   </si>
   <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hanna. Thank you, Chairman.    Dr. Nield, you have heard the testimony, I know, and it is an interesting dynamic. A moratorium seems to be the antithesis of--and yet at the same time agree with Mr. MacCallum that if you need a moratorium, then you are not capable of doing the job. What would you wait for? And I am thinking of the Next Generation Aviation, which you are familiar with, which is 20 years behind now.    Mr. MacCallum, this industry, there are many different groups in it. It is a great opportunity, depending on who you are and what your level of risk you are able to take. But, I mean, is it possible to do everything everybody wants to do here successfully without having a great deal of latitude in the process? Because there are multiple ways of doing this and ideas. And we have seen that over the last 5 or 10 years.</t>
   </si>
   <si>
@@ -391,6 +451,12 @@
     <t>412318</t>
   </si>
   <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. And thank the witnesses for being here, especially Mr. Gold. I think you have some familiarity with southern Nevada from your time at Bigelow. A lot of people who come to my district get transported to another dimension, but they don't usually think about it as space travel. So appreciate your knowledge.    I would like to address my question to you, Mr. Gold, and to Dr. Nield. You know, we are just a couple of weeks away from the reauthorization again of the FAA bill. The Senate has passed a version. And we have a version over here on the House side that calls for a privatization of air traffic control system. Part of the problem with that is that it puts the decisionmaking in the hands of a commission or a committee that is dominated by just primarily one special interest and leaves out a lot of the players, including commercial space industry.    So I would ask you, Mr. Gold, if you would be satisfied with a system that where they determine rates and access and every bit of use of airspace where you are not at the table? And I would ask Dr. Nield if he would comment on kind of the relationship between the Office of Commercial Space and air traffic. And I know it is a substantial one, and what kind of challenges would be posed if we moved to this new system that is in the House bill?</t>
   </si>
   <si>
@@ -422,6 +488,12 @@
   </si>
   <si>
     <t>412416</t>
+  </si>
+  <si>
+    <t>Woodall</t>
+  </si>
+  <si>
+    <t>Rob</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Woodall. Thank you, Mr. Chairman.    I have heard a common theme of a new frontier and emerging industry, young industry. Mr. Lopez-Alegria, help me understand what the tipping point is when it does move to the common carriage that Mr. MacCallum mentioned. When do we stop having the conversation about an immature industry and start having the conversation about safety and a mature industry that is ready for commercial travel?</t>
@@ -824,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,3221 +926,3782 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>106</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G86" t="s">
+        <v>117</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G90" t="s">
+        <v>117</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G92" t="s">
+        <v>126</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>50</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>107</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G102" t="s">
+        <v>126</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>107</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>107</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G106" t="s">
+        <v>126</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G108" t="s">
+        <v>145</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G110" t="s">
+        <v>145</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G112" t="s">
+        <v>145</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G114" t="s">
+        <v>145</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G116" t="s">
+        <v>145</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G118" t="s">
+        <v>158</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G120" t="s">
+        <v>158</v>
+      </c>
       <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G122" t="s">
+        <v>158</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G124" t="s">
+        <v>158</v>
+      </c>
       <c r="H124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
       <c r="H132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
       <c r="H134" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20500.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400244</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>LoBiondo</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Larsen</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>400100</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>DeFazio</t>
   </si>
   <si>
@@ -236,6 +248,9 @@
   </si>
   <si>
     <t>400440</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Young</t>
@@ -896,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,7 +919,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,3779 +944,4072 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I82" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s">
-        <v>39</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>43</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I90" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G92" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I96" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>50</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>54</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G98" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>50</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>54</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>43</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G104" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>50</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>54</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G106" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="H108" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>39</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>43</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I110" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>39</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>43</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G112" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I112" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G114" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="H114" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I114" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G116" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I116" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="H118" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>42</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G120" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="H120" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>42</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>46</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G122" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="H122" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I122" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>50</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>54</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G124" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s">
-        <v>27</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>40</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>46</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I132" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I134" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
